--- a/examples/2.1.0/SAF_example_HOUSE_metric_ZYX_210.xlsx
+++ b/examples/2.1.0/SAF_example_HOUSE_metric_ZYX_210.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\workwork\SAF example house\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCDEEA6-04B0-4D59-8DE1-1C80C8948CBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B548893-D00B-42F9-B430-A3622E825261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="3225" windowWidth="17280" windowHeight="10185" firstSheet="33" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="4665" windowWidth="17280" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -7384,8 +7384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13738,7 +13738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/examples/2.1.0/SAF_example_HOUSE_metric_ZYX_210.xlsx
+++ b/examples/2.1.0/SAF_example_HOUSE_metric_ZYX_210.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\workwork\SAF example house\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\workwork\SAF example house\2022-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B548893-D00B-42F9-B430-A3622E825261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDA14A0-51CB-4BFF-B1E3-031F1AE2ECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="4665" windowWidth="17280" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="27030" windowHeight="14775" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -5318,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5863,10 +5863,10 @@
         <v>609</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -5999,10 +5999,10 @@
         <v>609</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -7384,7 +7384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
